--- a/2024/nuno-dataset/test-oxigen/content/results/metrics_2_8.xlsx
+++ b/2024/nuno-dataset/test-oxigen/content/results/metrics_2_8.xlsx
@@ -478,745 +478,745 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>model_2_8_10</t>
+          <t>model_2_8_0</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.7959290065479308</v>
+        <v>0.09932080507882668</v>
       </c>
       <c r="C2" t="n">
-        <v>-1.728279647330556</v>
+        <v>0.007716834657778171</v>
       </c>
       <c r="D2" t="n">
-        <v>0.3439368026531286</v>
+        <v>-0.6030041075679275</v>
       </c>
       <c r="E2" t="n">
-        <v>-0.3228425113231776</v>
+        <v>-0.02385691808229473</v>
       </c>
       <c r="F2" t="n">
-        <v>0.225846454501152</v>
+        <v>0.9967864155769348</v>
       </c>
       <c r="G2" t="n">
-        <v>0.9260993599891663</v>
+        <v>1.138180732727051</v>
       </c>
       <c r="H2" t="n">
-        <v>0.3326855897903442</v>
+        <v>0.2953936159610748</v>
       </c>
       <c r="I2" t="n">
-        <v>0.6468462347984314</v>
+        <v>0.7415750622749329</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>model_2_8_5</t>
+          <t>model_2_8_22</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.7961642410272844</v>
+        <v>0.09932080507882668</v>
       </c>
       <c r="C3" t="n">
-        <v>-1.784568042272233</v>
+        <v>0.007716834657778171</v>
       </c>
       <c r="D3" t="n">
-        <v>0.4132530124027038</v>
+        <v>-0.6030041075679275</v>
       </c>
       <c r="E3" t="n">
-        <v>-0.309701208964319</v>
+        <v>-0.02385691808229473</v>
       </c>
       <c r="F3" t="n">
-        <v>0.2255861312150955</v>
+        <v>0.9967864155769348</v>
       </c>
       <c r="G3" t="n">
-        <v>0.9452061057090759</v>
+        <v>1.138180732727051</v>
       </c>
       <c r="H3" t="n">
-        <v>0.2975357472896576</v>
+        <v>0.2953936159610748</v>
       </c>
       <c r="I3" t="n">
-        <v>0.6404203176498413</v>
+        <v>0.7415750622749329</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>model_2_8_6</t>
+          <t>model_2_8_21</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.7964069375891513</v>
+        <v>0.09932080507882668</v>
       </c>
       <c r="C4" t="n">
-        <v>-1.789001024552171</v>
+        <v>0.007716834657778171</v>
       </c>
       <c r="D4" t="n">
-        <v>0.4132497320259062</v>
+        <v>-0.6030041075679275</v>
       </c>
       <c r="E4" t="n">
-        <v>-0.3113309247480056</v>
+        <v>-0.02385691808229473</v>
       </c>
       <c r="F4" t="n">
-        <v>0.2253175228834152</v>
+        <v>0.9967864155769348</v>
       </c>
       <c r="G4" t="n">
-        <v>0.9467108249664307</v>
+        <v>1.138180732727051</v>
       </c>
       <c r="H4" t="n">
-        <v>0.2975374162197113</v>
+        <v>0.2953936159610748</v>
       </c>
       <c r="I4" t="n">
-        <v>0.6412172317504883</v>
+        <v>0.7415750622749329</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>model_2_8_11</t>
+          <t>model_2_8_20</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.7968500833039556</v>
+        <v>0.09932080507882668</v>
       </c>
       <c r="C5" t="n">
-        <v>-1.694456291765426</v>
+        <v>0.007716834657778171</v>
       </c>
       <c r="D5" t="n">
-        <v>0.3313319224559591</v>
+        <v>-0.6030041075679275</v>
       </c>
       <c r="E5" t="n">
-        <v>-0.3165621213280196</v>
+        <v>-0.02385691808229473</v>
       </c>
       <c r="F5" t="n">
-        <v>0.2248270809650421</v>
+        <v>0.9967864155769348</v>
       </c>
       <c r="G5" t="n">
-        <v>0.914618194103241</v>
+        <v>1.138180732727051</v>
       </c>
       <c r="H5" t="n">
-        <v>0.3390774428844452</v>
+        <v>0.2953936159610748</v>
       </c>
       <c r="I5" t="n">
-        <v>0.6437752246856689</v>
+        <v>0.7415750622749329</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>model_2_8_7</t>
+          <t>model_2_8_19</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.7970192009634312</v>
+        <v>0.09932080507882668</v>
       </c>
       <c r="C6" t="n">
-        <v>-1.770147269753138</v>
+        <v>0.007716834657778171</v>
       </c>
       <c r="D6" t="n">
-        <v>0.4041586727501624</v>
+        <v>-0.6030041075679275</v>
       </c>
       <c r="E6" t="n">
-        <v>-0.3088380383151388</v>
+        <v>-0.02385691808229473</v>
       </c>
       <c r="F6" t="n">
-        <v>0.2246399223804474</v>
+        <v>0.9967864155769348</v>
       </c>
       <c r="G6" t="n">
-        <v>0.9403110146522522</v>
+        <v>1.138180732727051</v>
       </c>
       <c r="H6" t="n">
-        <v>0.3021474480628967</v>
+        <v>0.2953936159610748</v>
       </c>
       <c r="I6" t="n">
-        <v>0.6399982571601868</v>
+        <v>0.7415750622749329</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>model_2_8_8</t>
+          <t>model_2_8_18</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.7974315302852807</v>
+        <v>0.09932080507882668</v>
       </c>
       <c r="C7" t="n">
-        <v>-1.743836665630344</v>
+        <v>0.007716834657778171</v>
       </c>
       <c r="D7" t="n">
-        <v>0.3874156473650581</v>
+        <v>-0.6030041075679275</v>
       </c>
       <c r="E7" t="n">
-        <v>-0.3073407293032442</v>
+        <v>-0.02385691808229473</v>
       </c>
       <c r="F7" t="n">
-        <v>0.224183589220047</v>
+        <v>0.9967864155769348</v>
       </c>
       <c r="G7" t="n">
-        <v>0.9313799738883972</v>
+        <v>1.138180732727051</v>
       </c>
       <c r="H7" t="n">
-        <v>0.3106377422809601</v>
+        <v>0.2953936159610748</v>
       </c>
       <c r="I7" t="n">
-        <v>0.6392660737037659</v>
+        <v>0.7415750622749329</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>model_2_8_9</t>
+          <t>model_2_8_17</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.7980784590721051</v>
+        <v>0.09932080507882668</v>
       </c>
       <c r="C8" t="n">
-        <v>-1.741368194582638</v>
+        <v>0.007716834657778171</v>
       </c>
       <c r="D8" t="n">
-        <v>0.3892624080256037</v>
+        <v>-0.6030041075679275</v>
       </c>
       <c r="E8" t="n">
-        <v>-0.305532178378366</v>
+        <v>-0.02385691808229473</v>
       </c>
       <c r="F8" t="n">
-        <v>0.2234676331281662</v>
+        <v>0.9967864155769348</v>
       </c>
       <c r="G8" t="n">
-        <v>0.9305421113967896</v>
+        <v>1.138180732727051</v>
       </c>
       <c r="H8" t="n">
-        <v>0.3097012639045715</v>
+        <v>0.2953936159610748</v>
       </c>
       <c r="I8" t="n">
-        <v>0.6383817791938782</v>
+        <v>0.7415750622749329</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>model_2_8_4</t>
+          <t>model_2_8_16</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.7995865152165336</v>
+        <v>0.09932080507882668</v>
       </c>
       <c r="C9" t="n">
-        <v>-1.72497445179985</v>
+        <v>0.007716834657778171</v>
       </c>
       <c r="D9" t="n">
-        <v>0.4299475438093412</v>
+        <v>-0.6030041075679275</v>
       </c>
       <c r="E9" t="n">
-        <v>-0.2796519138246114</v>
+        <v>-0.02385691808229473</v>
       </c>
       <c r="F9" t="n">
-        <v>0.2217986583709717</v>
+        <v>0.9967864155769348</v>
       </c>
       <c r="G9" t="n">
-        <v>0.9249774217605591</v>
+        <v>1.138180732727051</v>
       </c>
       <c r="H9" t="n">
-        <v>0.2890700697898865</v>
+        <v>0.2953936159610748</v>
       </c>
       <c r="I9" t="n">
-        <v>0.6257267594337463</v>
+        <v>0.7415750622749329</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>model_2_8_0</t>
+          <t>model_2_8_15</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.8014947249060668</v>
+        <v>0.09932080507882668</v>
       </c>
       <c r="C10" t="n">
-        <v>-0.797227196463282</v>
+        <v>0.007716834657778171</v>
       </c>
       <c r="D10" t="n">
-        <v>0.8322699584316238</v>
+        <v>-0.6030041075679275</v>
       </c>
       <c r="E10" t="n">
-        <v>0.2576451712574048</v>
+        <v>-0.02385691808229473</v>
       </c>
       <c r="F10" t="n">
-        <v>0.2196868509054184</v>
+        <v>0.9967864155769348</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6100586652755737</v>
+        <v>1.138180732727051</v>
       </c>
       <c r="H10" t="n">
-        <v>0.08505486696958542</v>
+        <v>0.2953936159610748</v>
       </c>
       <c r="I10" t="n">
-        <v>0.3629981875419617</v>
+        <v>0.7415750622749329</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>model_2_8_12</t>
+          <t>model_2_8_14</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.8034674642389071</v>
+        <v>0.09932080507882668</v>
       </c>
       <c r="C11" t="n">
-        <v>-1.62146159850351</v>
+        <v>0.007716834657778171</v>
       </c>
       <c r="D11" t="n">
-        <v>0.3601934229541326</v>
+        <v>-0.6030041075679275</v>
       </c>
       <c r="E11" t="n">
-        <v>-0.2756519436582341</v>
+        <v>-0.02385691808229473</v>
       </c>
       <c r="F11" t="n">
-        <v>0.217503622174263</v>
+        <v>0.9967864155769348</v>
       </c>
       <c r="G11" t="n">
-        <v>0.8898404240608215</v>
+        <v>1.138180732727051</v>
       </c>
       <c r="H11" t="n">
-        <v>0.3244419693946838</v>
+        <v>0.2953936159610748</v>
       </c>
       <c r="I11" t="n">
-        <v>0.6237708926200867</v>
+        <v>0.7415750622749329</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>model_2_8_2</t>
+          <t>model_2_8_13</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.805696360486292</v>
+        <v>0.09932080507882668</v>
       </c>
       <c r="C12" t="n">
-        <v>-1.50039738150736</v>
+        <v>0.007716834657778171</v>
       </c>
       <c r="D12" t="n">
-        <v>0.5637175444665701</v>
+        <v>-0.6030041075679275</v>
       </c>
       <c r="E12" t="n">
-        <v>-0.1318353576254996</v>
+        <v>-0.02385691808229473</v>
       </c>
       <c r="F12" t="n">
-        <v>0.2150368839502335</v>
+        <v>0.9967864155769348</v>
       </c>
       <c r="G12" t="n">
-        <v>0.8487459421157837</v>
+        <v>1.138180732727051</v>
       </c>
       <c r="H12" t="n">
-        <v>0.2212361395359039</v>
+        <v>0.2953936159610748</v>
       </c>
       <c r="I12" t="n">
-        <v>0.5534471869468689</v>
+        <v>0.7415750622749329</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>model_2_8_3</t>
+          <t>model_2_8_23</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.8060070436563815</v>
+        <v>0.09932080507882668</v>
       </c>
       <c r="C13" t="n">
-        <v>-1.624202565834529</v>
+        <v>0.007716834657778171</v>
       </c>
       <c r="D13" t="n">
-        <v>0.4802571354935059</v>
+        <v>-0.6030041075679275</v>
       </c>
       <c r="E13" t="n">
-        <v>-0.218065323001885</v>
+        <v>-0.02385691808229473</v>
       </c>
       <c r="F13" t="n">
-        <v>0.2146930396556854</v>
+        <v>0.9967864155769348</v>
       </c>
       <c r="G13" t="n">
-        <v>0.8907709121704102</v>
+        <v>1.138180732727051</v>
       </c>
       <c r="H13" t="n">
-        <v>0.2635583877563477</v>
+        <v>0.2953936159610748</v>
       </c>
       <c r="I13" t="n">
-        <v>0.5956120491027832</v>
+        <v>0.7415750622749329</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>model_2_8_13</t>
+          <t>model_2_8_12</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.8080933656909224</v>
+        <v>0.09932080507882668</v>
       </c>
       <c r="C14" t="n">
-        <v>-1.553189100755993</v>
+        <v>0.007716834657778171</v>
       </c>
       <c r="D14" t="n">
-        <v>0.3708020307954759</v>
+        <v>-0.6030041075679275</v>
       </c>
       <c r="E14" t="n">
-        <v>-0.2453833407492116</v>
+        <v>-0.02385691808229473</v>
       </c>
       <c r="F14" t="n">
-        <v>0.2123840898275375</v>
+        <v>0.9967864155769348</v>
       </c>
       <c r="G14" t="n">
-        <v>0.8666657209396362</v>
+        <v>1.138180732727051</v>
       </c>
       <c r="H14" t="n">
-        <v>0.3190624117851257</v>
+        <v>0.2953936159610748</v>
       </c>
       <c r="I14" t="n">
-        <v>0.6089701056480408</v>
+        <v>0.7415750622749329</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>model_2_8_1</t>
+          <t>model_2_8_10</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.8085197123899956</v>
+        <v>0.09932080507882668</v>
       </c>
       <c r="C15" t="n">
-        <v>-0.7956170558697435</v>
+        <v>0.007716834657778171</v>
       </c>
       <c r="D15" t="n">
-        <v>0.7666636798813988</v>
+        <v>-0.6030041075679275</v>
       </c>
       <c r="E15" t="n">
-        <v>0.2262196594345686</v>
+        <v>-0.02385691808229473</v>
       </c>
       <c r="F15" t="n">
-        <v>0.2119122594594955</v>
+        <v>0.9967864155769348</v>
       </c>
       <c r="G15" t="n">
-        <v>0.6095121502876282</v>
+        <v>1.138180732727051</v>
       </c>
       <c r="H15" t="n">
-        <v>0.1183234006166458</v>
+        <v>0.2953936159610748</v>
       </c>
       <c r="I15" t="n">
-        <v>0.3783646821975708</v>
+        <v>0.7415750622749329</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>model_2_8_14</t>
+          <t>model_2_8_9</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.8122742420666416</v>
+        <v>0.09932080507882668</v>
       </c>
       <c r="C16" t="n">
-        <v>-1.514335334625613</v>
+        <v>0.007716834657778171</v>
       </c>
       <c r="D16" t="n">
-        <v>0.3897702050108264</v>
+        <v>-0.6030041075679275</v>
       </c>
       <c r="E16" t="n">
-        <v>-0.2218479751060425</v>
+        <v>-0.02385691808229473</v>
       </c>
       <c r="F16" t="n">
-        <v>0.2077571004629135</v>
+        <v>0.9967864155769348</v>
       </c>
       <c r="G16" t="n">
-        <v>0.8534770607948303</v>
+        <v>1.138180732727051</v>
       </c>
       <c r="H16" t="n">
-        <v>0.3094437718391418</v>
+        <v>0.2953936159610748</v>
       </c>
       <c r="I16" t="n">
-        <v>0.5974617004394531</v>
+        <v>0.7415750622749329</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>model_2_8_15</t>
+          <t>model_2_8_8</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.8229084437659944</v>
+        <v>0.09932080507882668</v>
       </c>
       <c r="C17" t="n">
-        <v>-1.379968905096651</v>
+        <v>0.007716834657778171</v>
       </c>
       <c r="D17" t="n">
-        <v>0.4286555453392205</v>
+        <v>-0.6030041075679275</v>
       </c>
       <c r="E17" t="n">
-        <v>-0.1534897003789815</v>
+        <v>-0.02385691808229473</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1959881633520126</v>
+        <v>0.9967864155769348</v>
       </c>
       <c r="G17" t="n">
-        <v>0.807867169380188</v>
+        <v>1.138180732727051</v>
       </c>
       <c r="H17" t="n">
-        <v>0.2897252440452576</v>
+        <v>0.2953936159610748</v>
       </c>
       <c r="I17" t="n">
-        <v>0.5640357732772827</v>
+        <v>0.7415750622749329</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>model_2_8_16</t>
+          <t>model_2_8_7</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.8260983333337664</v>
+        <v>0.09932080507882668</v>
       </c>
       <c r="C18" t="n">
-        <v>-1.325477231016191</v>
+        <v>0.007716834657778171</v>
       </c>
       <c r="D18" t="n">
-        <v>0.4326320114366985</v>
+        <v>-0.6030041075679275</v>
       </c>
       <c r="E18" t="n">
-        <v>-0.1315232849570804</v>
+        <v>-0.02385691808229473</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1924578994512558</v>
+        <v>0.9967864155769348</v>
       </c>
       <c r="G18" t="n">
-        <v>0.7893702983856201</v>
+        <v>1.138180732727051</v>
       </c>
       <c r="H18" t="n">
-        <v>0.2877087891101837</v>
+        <v>0.2953936159610748</v>
       </c>
       <c r="I18" t="n">
-        <v>0.5532945394515991</v>
+        <v>0.7415750622749329</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>model_2_8_17</t>
+          <t>model_2_8_6</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.827892190236599</v>
+        <v>0.09932080507882668</v>
       </c>
       <c r="C19" t="n">
-        <v>-1.269473533413431</v>
+        <v>0.007716834657778171</v>
       </c>
       <c r="D19" t="n">
-        <v>0.4096317506593765</v>
+        <v>-0.6030041075679275</v>
       </c>
       <c r="E19" t="n">
-        <v>-0.1221658392929201</v>
+        <v>-0.02385691808229473</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1904726177453995</v>
+        <v>0.9967864155769348</v>
       </c>
       <c r="G19" t="n">
-        <v>0.7703601121902466</v>
+        <v>1.138180732727051</v>
       </c>
       <c r="H19" t="n">
-        <v>0.2993720769882202</v>
+        <v>0.2953936159610748</v>
       </c>
       <c r="I19" t="n">
-        <v>0.5487189292907715</v>
+        <v>0.7415750622749329</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>model_2_8_19</t>
+          <t>model_2_8_5</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.8321766859509621</v>
+        <v>0.09932080507882668</v>
       </c>
       <c r="C20" t="n">
-        <v>-1.171403347639873</v>
+        <v>0.007716834657778171</v>
       </c>
       <c r="D20" t="n">
-        <v>0.3911221527626362</v>
+        <v>-0.6030041075679275</v>
       </c>
       <c r="E20" t="n">
-        <v>-0.09515948166395005</v>
+        <v>-0.02385691808229473</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1857309341430664</v>
+        <v>0.9967864155769348</v>
       </c>
       <c r="G20" t="n">
-        <v>0.7370707392692566</v>
+        <v>1.138180732727051</v>
       </c>
       <c r="H20" t="n">
-        <v>0.3087581694126129</v>
+        <v>0.2953936159610748</v>
       </c>
       <c r="I20" t="n">
-        <v>0.5355132818222046</v>
+        <v>0.7415750622749329</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>model_2_8_20</t>
+          <t>model_2_8_4</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.8328269068233485</v>
+        <v>0.09932080507882668</v>
       </c>
       <c r="C21" t="n">
-        <v>-1.145873128876257</v>
+        <v>0.007716834657778171</v>
       </c>
       <c r="D21" t="n">
-        <v>0.3780340438161744</v>
+        <v>-0.6030041075679275</v>
       </c>
       <c r="E21" t="n">
-        <v>-0.09216125944960196</v>
+        <v>-0.02385691808229473</v>
       </c>
       <c r="F21" t="n">
-        <v>0.1850113570690155</v>
+        <v>0.9967864155769348</v>
       </c>
       <c r="G21" t="n">
-        <v>0.7284046411514282</v>
+        <v>1.138180732727051</v>
       </c>
       <c r="H21" t="n">
-        <v>0.3153950870037079</v>
+        <v>0.2953936159610748</v>
       </c>
       <c r="I21" t="n">
-        <v>0.5340472459793091</v>
+        <v>0.7415750622749329</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>model_2_8_18</t>
+          <t>model_2_8_3</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.8332695842343928</v>
+        <v>0.09932080507882668</v>
       </c>
       <c r="C22" t="n">
-        <v>-1.152003766504174</v>
+        <v>0.007716834657778171</v>
       </c>
       <c r="D22" t="n">
-        <v>0.3963046877380391</v>
+        <v>-0.6030041075679275</v>
       </c>
       <c r="E22" t="n">
-        <v>-0.08549811131009455</v>
+        <v>-0.02385691808229473</v>
       </c>
       <c r="F22" t="n">
-        <v>0.1845214366912842</v>
+        <v>0.9967864155769348</v>
       </c>
       <c r="G22" t="n">
-        <v>0.7304856777191162</v>
+        <v>1.138180732727051</v>
       </c>
       <c r="H22" t="n">
-        <v>0.3061301410198212</v>
+        <v>0.2953936159610748</v>
       </c>
       <c r="I22" t="n">
-        <v>0.5307890772819519</v>
+        <v>0.7415750622749329</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>model_2_8_21</t>
+          <t>model_2_8_2</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.8362965409159955</v>
+        <v>0.09932080507882668</v>
       </c>
       <c r="C23" t="n">
-        <v>-1.051647779286166</v>
+        <v>0.007716834657778171</v>
       </c>
       <c r="D23" t="n">
-        <v>0.3478076784376315</v>
+        <v>-0.6030041075679275</v>
       </c>
       <c r="E23" t="n">
-        <v>-0.07228352858855569</v>
+        <v>-0.02385691808229473</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1811715066432953</v>
+        <v>0.9967864155769348</v>
       </c>
       <c r="G23" t="n">
-        <v>0.6964203715324402</v>
+        <v>1.138180732727051</v>
       </c>
       <c r="H23" t="n">
-        <v>0.3307226896286011</v>
+        <v>0.2953936159610748</v>
       </c>
       <c r="I23" t="n">
-        <v>0.5243273973464966</v>
+        <v>0.7415750622749329</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>model_2_8_22</t>
+          <t>model_2_8_1</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.8370270808126949</v>
+        <v>0.09932080507882668</v>
       </c>
       <c r="C24" t="n">
-        <v>-1.032915950094286</v>
+        <v>0.007716834657778171</v>
       </c>
       <c r="D24" t="n">
-        <v>0.3418320566934205</v>
+        <v>-0.6030041075679275</v>
       </c>
       <c r="E24" t="n">
-        <v>-0.06831695347941924</v>
+        <v>-0.02385691808229473</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1803629845380783</v>
+        <v>0.9967864155769348</v>
       </c>
       <c r="G24" t="n">
-        <v>0.6900619864463806</v>
+        <v>1.138180732727051</v>
       </c>
       <c r="H24" t="n">
-        <v>0.3337529003620148</v>
+        <v>0.2953936159610748</v>
       </c>
       <c r="I24" t="n">
-        <v>0.5223878026008606</v>
+        <v>0.7415750622749329</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>model_2_8_23</t>
+          <t>model_2_8_11</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.8441006541289567</v>
+        <v>0.09932080507882668</v>
       </c>
       <c r="C25" t="n">
-        <v>-0.9246162134941915</v>
+        <v>0.007716834657778171</v>
       </c>
       <c r="D25" t="n">
-        <v>0.3566214859487769</v>
+        <v>-0.6030041075679275</v>
       </c>
       <c r="E25" t="n">
-        <v>-0.02129647803164048</v>
+        <v>-0.02385691808229473</v>
       </c>
       <c r="F25" t="n">
-        <v>0.1725346297025681</v>
+        <v>0.9967864155769348</v>
       </c>
       <c r="G25" t="n">
-        <v>0.6533002257347107</v>
+        <v>1.138180732727051</v>
       </c>
       <c r="H25" t="n">
-        <v>0.3262532353401184</v>
+        <v>0.2953936159610748</v>
       </c>
       <c r="I25" t="n">
-        <v>0.4993956089019775</v>
+        <v>0.7415750622749329</v>
       </c>
     </row>
     <row r="26">
@@ -1226,28 +1226,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.8441900110172612</v>
+        <v>0.09932080507882668</v>
       </c>
       <c r="C26" t="n">
-        <v>-0.9224927725314838</v>
+        <v>0.007716834657778171</v>
       </c>
       <c r="D26" t="n">
-        <v>0.3542717889465959</v>
+        <v>-0.6030041075679275</v>
       </c>
       <c r="E26" t="n">
-        <v>-0.02165996861733532</v>
+        <v>-0.02385691808229473</v>
       </c>
       <c r="F26" t="n">
-        <v>0.1724357604980469</v>
+        <v>0.9967864155769348</v>
       </c>
       <c r="G26" t="n">
-        <v>0.6525794267654419</v>
+        <v>1.138180732727051</v>
       </c>
       <c r="H26" t="n">
-        <v>0.3274447917938232</v>
+        <v>0.2953936159610748</v>
       </c>
       <c r="I26" t="n">
-        <v>0.4995733797550201</v>
+        <v>0.7415750622749329</v>
       </c>
     </row>
   </sheetData>
